--- a/Project 2/puget-sound-butter-clams.xlsx
+++ b/Project 2/puget-sound-butter-clams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C3CD70-5224-44EF-9A4D-3E958B07E3BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024E0286-9DFD-481D-AA79-4982F4241895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,6 +156,1510 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'s001'!$A$1:$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>Butter clams from Alki Beach, Puget Sound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W (cm)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s001'!$B$1:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.0">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.0">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.0">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.0">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.0">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.0">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.0">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.0">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.0">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8E4-4272-BBEE-6A79794301BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1018478943"/>
+        <c:axId val="1018006143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1018478943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018006143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1018006143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018478943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F5DEF6-234C-4B0C-AA04-636EC7A72FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,7 +1986,7 @@
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1210,5 +2714,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>